--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maria’s reputation has attracted many opponents. In this battle, she faces the great vanguard of Roar Knightclub, "Plastic" Szewczyk.
+    <t xml:space="preserve">Maria’s reputation has attracted many opponents. In this battle, she faces the great vanguard of Roar Knightclub, 'Plastic' Szewczyk.
 </t>
   </si>
   <si>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maria’s reputation has attracted many opponents. In this battle, she faces the great vanguard of Roar Knightclub, 'Plastic' Szewczyk.
+    <t xml:space="preserve">Maria's reputation has attracted many opponents. In this battle, she faces the great vanguard of Roar Knightclub, 'Plastic' Szewczyk.
 </t>
   </si>
   <si>
